--- a/medicine/Enfance/Le_Faucon_déniché/Le_Faucon_déniché.xlsx
+++ b/medicine/Enfance/Le_Faucon_déniché/Le_Faucon_déniché.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Faucon_d%C3%A9nich%C3%A9</t>
+          <t>Le_Faucon_déniché</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Faucon déniché est un roman pour la jeunesse écrit par Jean-Côme Noguès, publié en France aux éditions G. P. en 1972. Le roman est destiné aux enfants de « 8-12 ans ». 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Faucon_d%C3%A9nich%C3%A9</t>
+          <t>Le_Faucon_déniché</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Quelques rééditions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le Livre de poche, illustrations de Chantal Cazin, 1982
 G. P. Rouge et or, ill. de Serge Ceccarelli, 1972
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Faucon_d%C3%A9nich%C3%A9</t>
+          <t>Le_Faucon_déniché</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire se déroule au Moyen Âge (XIIIe siècle), dans la région du pays d'Oc, dans un petit village appelé Soupex. 
 Martin est un jeune manant et serf, fils de Brichot le bûcheron.Toute la journée, il garde les oies; son rêve est de posséder un faucon pour s'en faire un compagnon et ami. Cependant au Moyen Âge, les faucons sont des oiseaux réservés aux seigneurs et il est interdit à quiconque d'autre d'en posséder un.
